--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c86c49769272455/Documents/GitHub/Vehicle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2B9DEAA7-92E7-4049-B018-68B38F90370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D5A4089-3538-4580-92B5-7964EA6849E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350CEAA-0F5B-46A9-B30E-EC43F6781891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Calculation of Max Drag</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Cg to Cp_F (x2)</t>
   </si>
   <si>
-    <t>Not super sure about the above geometry values</t>
-  </si>
-  <si>
     <t>W_2</t>
   </si>
   <si>
@@ -206,29 +203,41 @@
     <t>Bending Loading</t>
   </si>
   <si>
-    <t>Location (Cp_N as origin)</t>
+    <t>True Location (using tip of nosecone as origin)</t>
   </si>
   <si>
-    <t>Shear Force</t>
+    <t>Relative Location (Cp_N as origin)</t>
   </si>
   <si>
-    <t>Bending Load</t>
+    <t>Relative Location (Cp_N as origin (x=0 here))</t>
   </si>
   <si>
-    <t>Using relative coordinates of Cp_N as x=0</t>
+    <t>Calculations done using relative coordinates (nosecone Cp as origin). True location listed for reference.</t>
   </si>
   <si>
-    <t>Still in relative coordinates</t>
+    <t>Shear Force (lbf)</t>
   </si>
   <si>
-    <t>Replace value 78 with length (not sure what length)</t>
+    <t>Bending Moment (ldf*in)</t>
+  </si>
+  <si>
+    <t>Length btwn Nosecone Cp and Fins Cp</t>
+  </si>
+  <si>
+    <t>The  location here is the distance to the fins Cp</t>
+  </si>
+  <si>
+    <t>Manually change this green cell to be the location of Cp_N to Cg (x1).</t>
+  </si>
+  <si>
+    <t>You will also need to change the parts of the formula below the green cells that reference green cell values.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +280,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -298,16 +315,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -340,30 +358,50 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7358705161854769E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.87105096237970259"/>
-          <c:h val="0.89814814814814814"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Shear</c:v>
+            <c:v>Shear Force</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -372,14 +410,277 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$4:$X$83</c:f>
+              <c:f>Sheet1!$W$4:$W$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86.923299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$4:$Y$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>21.526536852695738</c:v>
                 </c:pt>
@@ -501,382 +802,138 @@
                   <c:v>-3.4973694813571576</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-4.1390081053072301</c:v>
+                  <c:v>-3.8040727436052926</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4.7806467292573025</c:v>
+                  <c:v>-3.9335357366578929</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.4222853532073785</c:v>
+                  <c:v>-4.1815491333103845</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-6.0639239771574545</c:v>
+                  <c:v>-4.429562529962876</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-6.7055626011075269</c:v>
+                  <c:v>-4.6775759266153676</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-7.3472012250575993</c:v>
+                  <c:v>-4.9255893232678591</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-7.9888398490076753</c:v>
+                  <c:v>-5.1736027199203507</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-8.6304784729577513</c:v>
+                  <c:v>-5.4216161165728423</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-9.2721170969078237</c:v>
+                  <c:v>-5.6696295132253338</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-9.9137557208578961</c:v>
+                  <c:v>-5.9176429098778254</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-10.555394344807969</c:v>
+                  <c:v>-6.1656563065303169</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-11.197032968758048</c:v>
+                  <c:v>-6.4136697031828085</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-11.838671592708121</c:v>
+                  <c:v>-6.6616830998353</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-12.480310216658193</c:v>
+                  <c:v>-6.9096964964877916</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-13.121948840608272</c:v>
+                  <c:v>-7.1577098931402832</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-13.763587464558345</c:v>
+                  <c:v>-7.4057232897927747</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-14.405226088508417</c:v>
+                  <c:v>-7.6537366864452663</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-14.642632379369946</c:v>
+                  <c:v>-7.9017500830977578</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-14.798880819261017</c:v>
+                  <c:v>-8.1497634797502485</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.046894215913508</c:v>
+                  <c:v>-8.397776876402741</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-15.294907612566</c:v>
+                  <c:v>-8.6457902730552334</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-15.542921009218491</c:v>
+                  <c:v>-8.8938036697077241</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-15.790934405870983</c:v>
+                  <c:v>-9.1418170663602147</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-16.038947802523474</c:v>
+                  <c:v>-9.3898304630127072</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-16.286961199175966</c:v>
+                  <c:v>-9.6378438596651996</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-16.534974595828459</c:v>
+                  <c:v>-9.8858572563176903</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-16.782987992480948</c:v>
+                  <c:v>-10.133870652970181</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-17.03100138913344</c:v>
+                  <c:v>-10.381884049622673</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-17.279014785785932</c:v>
+                  <c:v>-10.629897446275166</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-17.527028182438425</c:v>
+                  <c:v>-10.877910842927657</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-17.775041579090914</c:v>
+                  <c:v>-11.125924239580147</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-18.023054975743406</c:v>
+                  <c:v>-11.37393763623264</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-18.271068372395899</c:v>
+                  <c:v>-11.621951032885132</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-18.519081769048391</c:v>
+                  <c:v>-11.869964429537623</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-18.76709516570088</c:v>
+                  <c:v>-12.117977826190113</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-19.015108562353372</c:v>
+                  <c:v>-12.365991222842606</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-12.614004619495097</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-12.862018016147589</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-13.11003141280008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-13.358044809452572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-13.606058206105063</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-13.711042276908062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6918-45FA-A41D-D94EE709A297}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bending</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AA$4:$AA$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.205717540720702</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.769796457491324</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.692236750311878</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.973038419182359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.612201464102768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>117.60972588507309</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>134.96561168209337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>151.67985885516353</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>167.75246740428364</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>183.18343732945368</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>197.97276863067361</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>212.12046130794351</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>225.62651536126333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238.49093079063309</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>250.7137075960527</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>262.29484577752231</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>273.23434533504184</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>283.53220626861128</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>293.18842857823063</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>302.20301226389995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>310.57595732561913</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>318.30726376338828</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>325.3969315772074</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>331.84496076707632</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>337.65135133299532</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>342.81610327496412</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>347.33921659298284</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>351.22069128705164</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>354.46052735717018</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>357.05872480333869</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>359.01528362555729</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>360.33020382382563</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>361.00348539814394</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>361.03512834851222</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360.42513267493035</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>359.17349837739846</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>357.28022545591654</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>354.74531391048447</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>351.56876374110232</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>347.75057494777025</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>343.29074753048792</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>338.18928148925545</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>332.44617682407318</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>326.06143353494065</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>319.03505162185797</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>311.3670310848255</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>303.05737192384277</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>294.10607413890989</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>284.51313773002698</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>274.27856269719427</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>263.4023490404112</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>251.88449675967809</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>239.72500585499483</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>226.92387632636155</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>213.48110817377824</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>199.39670139724512</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>194.02284758068754</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>458.05072091869403</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>438.93839110485288</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>419.57804789435937</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>399.96969128721327</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>380.11332128341445</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>360.00893788296349</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>339.65654108585971</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>319.05613089210379</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>298.20770730169505</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>277.11127031463417</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>255.76681993092035</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>234.17435615055439</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>212.33387897353583</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>190.24538839986479</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>167.90888442954127</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>145.32436706256516</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>122.49183629893679</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>99.41129213865571</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6918-45FA-A41D-D94EE709A297}"/>
+              <c16:uniqueId val="{00000001-A9D3-4AB1-911B-2AB8B9314D56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -888,17 +945,91 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="293985440"/>
-        <c:axId val="333737696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="293985440"/>
+        <c:axId val="605360159"/>
+        <c:axId val="976130335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="605360159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance from Nosecone</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Tip (in)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -907,8 +1038,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -935,15 +1066,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333737696"/>
+        <c:crossAx val="976130335"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="333737696"/>
+        <c:axId val="976130335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,14 +1091,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Shear Force (lbf)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -994,9 +1183,910 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293985440"/>
+        <c:crossAx val="605360159"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bending Moment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E97132"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86.923299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$4:$AC$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.205717540720702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.769796457491324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.692236750311878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.973038419182359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.612201464102768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.60972588507309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>134.96561168209337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.67985885516353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167.75246740428364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183.18343732945368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197.97276863067361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>212.12046130794351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225.62651536126333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238.49093079063309</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.7137075960527</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>262.29484577752231</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>273.23434533504184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>283.53220626861128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.18842857823063</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>302.20301226389995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310.57595732561913</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>318.30726376338828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>325.3969315772074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>331.84496076707632</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>337.65135133299532</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>342.81610327496412</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>347.33921659298284</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>351.22069128705164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>354.46052735717018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>357.05872480333869</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>359.01528362555729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>360.33020382382563</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>361.00348539814394</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>361.03512834851222</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360.42513267493035</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>359.17349837739846</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>357.28022545591654</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>354.74531391048447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351.56876374110232</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>349.82371904933632</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>347.80420323598804</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>343.74666080100354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>339.44110496936736</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>334.8875357410779</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>330.08595311613652</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>325.03635709454221</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>319.73874767629565</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>314.1931248613966</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>308.39948864984507</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>302.35783904164094</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>296.06817603678445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>289.53049963527536</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>282.74480983711391</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>275.71110664229985</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>268.42939005083298</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>260.89966006271442</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>253.12191667794258</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>245.09615989651883</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>236.82238971844214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>228.30060614371342</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>219.53080917233177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>210.51299880429764</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>201.24717503961125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>191.73333787827238</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>181.97148732028091</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>171.96162336563697</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>161.70374601434065</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>151.19785526639174</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>140.44395112179035</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>129.44203358053613</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>118.19210264263</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>106.69415830807094</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>94.948200576859847</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.954229448995818</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>70.712244924479535</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58.222247003310656</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.484235685489182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.498210971015453</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.264172859889129</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7821213521102663</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.5703488069648301E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F357-447A-A326-B88ED2EE9ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="605360159"/>
+        <c:axId val="976130335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="605360159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance from Nosecone</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Tip (in)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976130335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="976130335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bending Moment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (lbf*in)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605360159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1090,8 +2180,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1118,8 +2248,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1199,11 +2329,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1214,11 +2339,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1230,7 +2350,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1250,9 +2370,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1265,10 +2382,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1308,22 +2425,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1428,8 +2546,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1561,19 +2679,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1587,6 +2706,533 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1671,23 +3317,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>21175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8797BB85-D15F-187D-EDCE-C07606A88369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F881768C-FC7C-05A6-60EB-09A153DCD862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,25 +3351,63 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22227</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC984016-2540-4FCC-BA4E-06CE89D4841E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>529168</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>419786</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1151</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38129</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4758A6D4-EF0E-6390-C267-77DB42FB5F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7773B6-680E-9D42-DD50-7B5DAF377946}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,15 +3416,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26517600" y="895350"/>
-          <a:ext cx="4915586" cy="8249801"/>
+          <a:off x="26670001" y="4254511"/>
+          <a:ext cx="7524749" cy="546118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2067,24 +3751,314 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0E2841"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E8E8E8"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="156082"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="E97132"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="196B24"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="0F9ED5"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="A02B93"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="4EA72E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="467886"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="96607D"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
-  <dimension ref="A1:AD79"/>
+  <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U22" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="25" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2108,14 +4082,16 @@
       </c>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-      <c r="W1" t="s">
+      <c r="X1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="7"/>
+      <c r="AB1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2141,13 +4117,12 @@
         <v>34</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2182,20 +4157,26 @@
       <c r="U3" t="s">
         <v>13</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -2221,7 +4202,7 @@
       <c r="Q4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="T4">
@@ -2232,21 +4213,29 @@
         <v>13</v>
       </c>
       <c r="W4">
+        <f>$P$9+X4</f>
+        <v>7.5</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
-      <c r="X4">
-        <f>$H$25-($T$9*W4)</f>
+      <c r="Y4">
+        <f>$H$25-($T$9*X4)</f>
         <v>21.526536852695738</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
+        <f>$P$9+AB4</f>
+        <v>7.5</v>
+      </c>
+      <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AA4">
-        <f>$H$25*Z4-(0.5*$T$9*(Z4*Z4))</f>
+      <c r="AC4">
+        <f>$H$25*AB4-(0.5*$T$9*(AB4*AB4))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +4264,7 @@
       <c r="Q5" t="s">
         <v>13</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="T5">
@@ -2286,23 +4275,31 @@
         <v>13</v>
       </c>
       <c r="W5">
-        <f>W4+1</f>
+        <f t="shared" ref="W5:W68" si="0">$P$9+X5</f>
+        <v>8.5</v>
+      </c>
+      <c r="X5">
+        <f>X4+1</f>
         <v>1</v>
       </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X61" si="0">$H$25-$T$9*W5</f>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y44" si="1">$H$25-$T$9*X5</f>
         <v>20.884898228745662</v>
       </c>
-      <c r="Z5">
-        <f>Z4+1</f>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA68" si="2">$P$9+AB5</f>
+        <v>8.5</v>
+      </c>
+      <c r="AB5">
+        <f>AB4+1</f>
         <v>1</v>
       </c>
-      <c r="AA5">
-        <f>$H$25*Z5-(0.5*$T$9*(Z5*Z5))</f>
+      <c r="AC5">
+        <f>$H$25*AB5-(0.5*$T$9*(AB5*AB5))</f>
         <v>21.205717540720702</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2313,30 +4310,36 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="S6" s="3"/>
       <c r="V6" t="s">
         <v>34</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W60" si="1">W5+1</f>
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X60" si="3">X5+1</f>
         <v>2</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
+      <c r="Y6">
+        <f t="shared" si="1"/>
         <v>20.24325960479559</v>
       </c>
-      <c r="Z6">
-        <f t="shared" ref="Z6:Z60" si="2">Z5+1</f>
+      <c r="AA6">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB60" si="4">AB5+1</f>
         <v>2</v>
       </c>
-      <c r="AA6">
-        <f t="shared" ref="AA6:AA56" si="3">$H$25*Z6-(0.5*$T$9*(Z6*Z6))</f>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC44" si="5">$H$25*AB6-(0.5*$T$9*(AB6*AB6))</f>
         <v>41.769796457491324</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2353,6 +4356,9 @@
       <c r="O7" t="s">
         <v>39</v>
       </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
       <c r="Q7" t="s">
         <v>42</v>
       </c>
@@ -2360,23 +4366,31 @@
         <v>34</v>
       </c>
       <c r="W7">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="1"/>
+        <v>19.601620980845517</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>19.601620980845517</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="3"/>
+      <c r="AC7">
+        <f t="shared" si="5"/>
         <v>61.692236750311878</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2392,34 +4406,42 @@
       <c r="Q8" t="s">
         <v>13</v>
       </c>
-      <c r="S8" t="s">
-        <v>51</v>
+      <c r="S8" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="T8">
         <f>(H19*(2*T5+T4)-H25*T4)/((T5)^2+(T4*T5))</f>
         <v>0.24801339665249156</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W8">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="1"/>
+        <v>18.959982356895441</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>18.959982356895441</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="3"/>
+      <c r="AC8">
+        <f t="shared" si="5"/>
         <v>80.973038419182359</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2439,34 +4461,42 @@
       <c r="Q9" t="s">
         <v>13</v>
       </c>
-      <c r="S9" t="s">
-        <v>52</v>
+      <c r="S9" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="T9">
         <f>(H25+H19-(T8*T5))/T4</f>
         <v>0.64163862395007421</v>
       </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="1"/>
+        <v>18.318343732945365</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>18.318343732945365</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="3"/>
+      <c r="AC9">
+        <f t="shared" si="5"/>
         <v>99.612201464102768</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2477,23 +4507,31 @@
         <v>13</v>
       </c>
       <c r="W10">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="1"/>
+        <v>17.676705108995293</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="0"/>
-        <v>17.676705108995293</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="3"/>
+      <c r="AC10">
+        <f t="shared" si="5"/>
         <v>117.60972588507309</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2503,24 +4541,42 @@
       <c r="I11" t="s">
         <v>13</v>
       </c>
+      <c r="O11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11">
+        <f>P5-P9</f>
+        <v>79.423333333333346</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
       <c r="W11">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="1"/>
+        <v>17.03506648504522</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="0"/>
-        <v>17.03506648504522</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="3"/>
+      <c r="AC11">
+        <f t="shared" si="5"/>
         <v>134.96561168209337</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2531,23 +4587,31 @@
         <v>13</v>
       </c>
       <c r="W12">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="1"/>
+        <v>16.393427861095144</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>16.393427861095144</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="3"/>
+      <c r="AC12">
+        <f t="shared" si="5"/>
         <v>151.67985885516353</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2558,23 +4622,31 @@
         <v>13</v>
       </c>
       <c r="W13">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="1"/>
+        <v>15.75178923714507</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="0"/>
-        <v>15.75178923714507</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="3"/>
+      <c r="AC13">
+        <f t="shared" si="5"/>
         <v>167.75246740428364</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2585,23 +4657,31 @@
         <v>13</v>
       </c>
       <c r="W14">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="1"/>
+        <v>15.110150613194996</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="0"/>
-        <v>15.110150613194996</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="3"/>
+      <c r="AC14">
+        <f t="shared" si="5"/>
         <v>183.18343732945368</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2613,23 +4693,31 @@
         <v>23</v>
       </c>
       <c r="W15">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="1"/>
+        <v>14.468511989244922</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>14.468511989244922</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="3"/>
+      <c r="AC15">
+        <f t="shared" si="5"/>
         <v>197.97276863067361</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2641,23 +4729,31 @@
         <v>13</v>
       </c>
       <c r="W16">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="1"/>
+        <v>13.826873365294848</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="0"/>
-        <v>13.826873365294848</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="3"/>
+      <c r="AC16">
+        <f t="shared" si="5"/>
         <v>212.12046130794351</v>
       </c>
     </row>
-    <row r="17" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2669,41 +4765,57 @@
         <v>24</v>
       </c>
       <c r="W17">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="1"/>
+        <v>13.185234741344773</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="X17">
+      <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>225.62651536126333</v>
+      </c>
+    </row>
+    <row r="18" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W18">
         <f t="shared" si="0"/>
-        <v>13.185234741344773</v>
-      </c>
-      <c r="Z17">
+        <v>21.5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>12.543596117394699</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="3"/>
-        <v>225.62651536126333</v>
-      </c>
-    </row>
-    <row r="18" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W18">
-        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="X18">
-        <f t="shared" si="0"/>
-        <v>12.543596117394699</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="3"/>
+      <c r="AC18">
+        <f t="shared" si="5"/>
         <v>238.49093079063309</v>
       </c>
     </row>
-    <row r="19" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2715,80 +4827,112 @@
         <v>14</v>
       </c>
       <c r="W19">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Y19">
         <f t="shared" si="1"/>
+        <v>11.901957493444625</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="X19">
+      <c r="AC19">
+        <f t="shared" si="5"/>
+        <v>250.7137075960527</v>
+      </c>
+    </row>
+    <row r="20" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W20">
         <f t="shared" si="0"/>
-        <v>11.901957493444625</v>
-      </c>
-      <c r="Z19">
+        <v>23.5</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>11.260318869494551</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AA19">
+        <v>23.5</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="5"/>
+        <v>262.29484577752231</v>
+      </c>
+    </row>
+    <row r="21" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="X21">
         <f t="shared" si="3"/>
-        <v>250.7137075960527</v>
-      </c>
-    </row>
-    <row r="20" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W20">
+        <v>17</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="0"/>
-        <v>11.260318869494551</v>
-      </c>
-      <c r="Z20">
+        <v>10.618680245544477</v>
+      </c>
+      <c r="AA21">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="3"/>
-        <v>262.29484577752231</v>
-      </c>
-    </row>
-    <row r="21" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W21">
-        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="X21">
-        <f t="shared" si="0"/>
-        <v>10.618680245544477</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="3"/>
+      <c r="AC21">
+        <f t="shared" si="5"/>
         <v>273.23434533504184</v>
       </c>
     </row>
-    <row r="22" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>26</v>
       </c>
       <c r="W22">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="1"/>
+        <v>9.9770416215944024</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="0"/>
-        <v>9.9770416215944024</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="3"/>
+      <c r="AC22">
+        <f t="shared" si="5"/>
         <v>283.53220626861128</v>
       </c>
     </row>
-    <row r="23" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>43</v>
       </c>
@@ -2796,23 +4940,31 @@
         <v>34</v>
       </c>
       <c r="W23">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="1"/>
+        <v>9.3354029976443282</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="X23">
-        <f t="shared" si="0"/>
-        <v>9.3354029976443282</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="3"/>
+      <c r="AC23">
+        <f t="shared" si="5"/>
         <v>293.18842857823063</v>
       </c>
     </row>
-    <row r="24" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2823,23 +4975,31 @@
         <v>24</v>
       </c>
       <c r="W24">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="1"/>
+        <v>8.693764373694254</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="X24">
-        <f t="shared" si="0"/>
-        <v>8.693764373694254</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="3"/>
+      <c r="AC24">
+        <f t="shared" si="5"/>
         <v>302.20301226389995</v>
       </c>
     </row>
-    <row r="25" spans="7:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:29" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
@@ -2851,996 +5011,1600 @@
         <v>14</v>
       </c>
       <c r="W25">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="1"/>
+        <v>8.0521257497441798</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="X25">
+      <c r="AC25">
+        <f t="shared" si="5"/>
+        <v>310.57595732561913</v>
+      </c>
+    </row>
+    <row r="26" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W26">
         <f t="shared" si="0"/>
-        <v>8.0521257497441798</v>
-      </c>
-      <c r="Z25">
+        <v>29.5</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>7.4104871257941056</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="AA25">
+        <v>29.5</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="5"/>
+        <v>318.30726376338828</v>
+      </c>
+    </row>
+    <row r="27" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="3"/>
-        <v>310.57595732561913</v>
-      </c>
-    </row>
-    <row r="26" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W26">
+        <v>23</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="X26">
+        <v>6.7688485018440314</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>30.5</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="5"/>
+        <v>325.3969315772074</v>
+      </c>
+    </row>
+    <row r="28" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W28">
         <f t="shared" si="0"/>
-        <v>7.4104871257941056</v>
-      </c>
-      <c r="Z26">
+        <v>31.5</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="1"/>
+        <v>6.1272098778939572</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AA26">
+        <v>31.5</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="5"/>
+        <v>331.84496076707632</v>
+      </c>
+    </row>
+    <row r="29" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="3"/>
-        <v>318.30726376338828</v>
-      </c>
-    </row>
-    <row r="27" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="Y29">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="X27">
+        <v>5.4855712539438848</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="5"/>
+        <v>337.65135133299532</v>
+      </c>
+    </row>
+    <row r="30" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W30">
         <f t="shared" si="0"/>
-        <v>6.7688485018440314</v>
-      </c>
-      <c r="Z27">
+        <v>33.5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>4.8439326299938088</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="AA27">
+        <v>33.5</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="5"/>
+        <v>342.81610327496412</v>
+      </c>
+    </row>
+    <row r="31" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="3"/>
-        <v>325.3969315772074</v>
-      </c>
-    </row>
-    <row r="28" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W28">
+        <v>27</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="X28">
+        <v>4.2022940060437328</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="2"/>
+        <v>34.5</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="5"/>
+        <v>347.33921659298284</v>
+      </c>
+    </row>
+    <row r="32" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="W32">
         <f t="shared" si="0"/>
-        <v>6.1272098778939572</v>
-      </c>
-      <c r="Z28">
+        <v>35.5</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="1"/>
+        <v>3.5606553820936604</v>
+      </c>
+      <c r="AA32">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AA28">
+        <v>35.5</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="5"/>
+        <v>351.22069128705164</v>
+      </c>
+    </row>
+    <row r="33" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="3"/>
-        <v>331.84496076707632</v>
-      </c>
-    </row>
-    <row r="29" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W29">
+        <v>29</v>
+      </c>
+      <c r="Y33">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="X29">
+        <v>2.919016758143588</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="5"/>
+        <v>354.46052735717018</v>
+      </c>
+    </row>
+    <row r="34" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W34">
         <f t="shared" si="0"/>
-        <v>5.4855712539438848</v>
-      </c>
-      <c r="Z29">
+        <v>37.5</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>2.277378134193512</v>
+      </c>
+      <c r="AA34">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="AA29">
+        <v>37.5</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="5"/>
+        <v>357.05872480333869</v>
+      </c>
+    </row>
+    <row r="35" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="3"/>
-        <v>337.65135133299532</v>
-      </c>
-    </row>
-    <row r="30" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W30">
+        <v>31</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="X30">
+        <v>1.635739510243436</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="2"/>
+        <v>38.5</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="5"/>
+        <v>359.01528362555729</v>
+      </c>
+    </row>
+    <row r="36" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W36">
         <f t="shared" si="0"/>
-        <v>4.8439326299938088</v>
-      </c>
-      <c r="Z30">
+        <v>39.5</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="1"/>
+        <v>0.99410088629336357</v>
+      </c>
+      <c r="AA36">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AA30">
+        <v>39.5</v>
+      </c>
+      <c r="AB36">
+        <f>AB35+1</f>
+        <v>32</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="5"/>
+        <v>360.33020382382563</v>
+      </c>
+    </row>
+    <row r="37" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="X37">
+        <f>X36+1</f>
+        <v>33</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="1"/>
+        <v>0.35246226234329114</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="2"/>
+        <v>40.5</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="5"/>
+        <v>361.00348539814394</v>
+      </c>
+    </row>
+    <row r="38" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="3"/>
-        <v>342.81610327496412</v>
-      </c>
-    </row>
-    <row r="31" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W31">
+        <v>34</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="X31">
+        <v>-0.28917636160678484</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="2"/>
+        <v>41.5</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="5"/>
+        <v>361.03512834851222</v>
+      </c>
+    </row>
+    <row r="39" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W39">
         <f t="shared" si="0"/>
-        <v>4.2022940060437328</v>
-      </c>
-      <c r="Z31">
+        <v>42.5</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="1"/>
+        <v>-0.93081498555686082</v>
+      </c>
+      <c r="AA39">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AA31">
+        <v>42.5</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="5"/>
+        <v>360.42513267493035</v>
+      </c>
+    </row>
+    <row r="40" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="3"/>
-        <v>347.33921659298284</v>
-      </c>
-    </row>
-    <row r="32" spans="7:27" x14ac:dyDescent="0.3">
-      <c r="W32">
+        <v>36</v>
+      </c>
+      <c r="Y40">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="X32">
+        <v>-1.5724536095069332</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="5"/>
+        <v>359.17349837739846</v>
+      </c>
+    </row>
+    <row r="41" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W41">
         <f t="shared" si="0"/>
-        <v>3.5606553820936604</v>
-      </c>
-      <c r="Z32">
+        <v>44.5</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="1"/>
+        <v>-2.2140922334570057</v>
+      </c>
+      <c r="AA41">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AA32">
+        <v>44.5</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="5"/>
+        <v>357.28022545591654</v>
+      </c>
+    </row>
+    <row r="42" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="3"/>
-        <v>351.22069128705164</v>
-      </c>
-    </row>
-    <row r="33" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W33">
+        <v>38</v>
+      </c>
+      <c r="Y42">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="X33">
+        <v>-2.8557308574070817</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="2"/>
+        <v>45.5</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="5"/>
+        <v>354.74531391048447</v>
+      </c>
+    </row>
+    <row r="43" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W43">
         <f t="shared" si="0"/>
-        <v>2.919016758143588</v>
-      </c>
-      <c r="Z33">
+        <v>46.5</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="1"/>
+        <v>-3.4973694813571576</v>
+      </c>
+      <c r="AA43">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="AA33">
+        <v>46.5</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="5"/>
+        <v>351.56876374110232</v>
+      </c>
+    </row>
+    <row r="44" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <f t="shared" si="0"/>
+        <v>46.978000000000002</v>
+      </c>
+      <c r="X44" s="5">
+        <v>39.478000000000002</v>
+      </c>
+      <c r="Y44" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.8040727436052926</v>
+      </c>
+      <c r="Z44" s="5"/>
+      <c r="AA44">
+        <f t="shared" si="2"/>
+        <v>46.978000000000002</v>
+      </c>
+      <c r="AB44" s="5">
+        <v>39.478000000000002</v>
+      </c>
+      <c r="AC44" s="5">
+        <f t="shared" si="5"/>
+        <v>349.82371904933632</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="X45">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="Y45">
+        <f>$Y$44-$T$8*(X45-$X$44)</f>
+        <v>-3.9335357366578929</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="AB45">
+        <f xml:space="preserve"> 40</f>
+        <v>40</v>
+      </c>
+      <c r="AC45">
+        <f>($Y$44*AB45)+($T$8*($T$4*AB45+0.5*$P$11^2-0.5*AB45^2))-$P$11*($Y$44+$T$8*$T$4)</f>
+        <v>347.80420323598804</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="X46">
         <f t="shared" si="3"/>
-        <v>354.46052735717018</v>
-      </c>
-    </row>
-    <row r="34" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W34">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="X34">
+        <v>41</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" ref="Y46:Y85" si="6">$Y$44-$T$8*(X46-$X$44)</f>
+        <v>-4.1815491333103845</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="2"/>
+        <v>48.5</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" ref="AC46:AC85" si="7">($Y$44*AB46)+($T$8*($T$4*AB46+0.5*$P$11^2-0.5*AB46^2))-$P$11*($Y$44+$T$8*$T$4)</f>
+        <v>343.74666080100354</v>
+      </c>
+    </row>
+    <row r="47" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W47">
         <f t="shared" si="0"/>
-        <v>2.277378134193512</v>
-      </c>
-      <c r="Z34">
+        <v>49.5</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="6"/>
+        <v>-4.429562529962876</v>
+      </c>
+      <c r="AA47">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AA34">
+        <v>49.5</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="7"/>
+        <v>339.44110496936736</v>
+      </c>
+    </row>
+    <row r="48" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="X48">
         <f t="shared" si="3"/>
-        <v>357.05872480333869</v>
-      </c>
-    </row>
-    <row r="35" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W35">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="X35">
+        <v>43</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="6"/>
+        <v>-4.6775759266153676</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="2"/>
+        <v>50.5</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="7"/>
+        <v>334.8875357410779</v>
+      </c>
+    </row>
+    <row r="49" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W49">
         <f t="shared" si="0"/>
-        <v>1.635739510243436</v>
-      </c>
-      <c r="Z35">
+        <v>51.5</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="6"/>
+        <v>-4.9255893232678591</v>
+      </c>
+      <c r="AA49">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="AA35">
+        <v>51.5</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="7"/>
+        <v>330.08595311613652</v>
+      </c>
+    </row>
+    <row r="50" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="X50">
         <f t="shared" si="3"/>
-        <v>359.01528362555729</v>
-      </c>
-    </row>
-    <row r="36" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W36">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="X36">
+        <v>45</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="6"/>
+        <v>-5.1736027199203507</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="7"/>
+        <v>325.03635709454221</v>
+      </c>
+    </row>
+    <row r="51" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W51">
         <f t="shared" si="0"/>
-        <v>0.99410088629336357</v>
-      </c>
-      <c r="Z36">
-        <f>Z35+1</f>
-        <v>32</v>
-      </c>
-      <c r="AA36">
+        <v>53.5</v>
+      </c>
+      <c r="X51">
         <f t="shared" si="3"/>
-        <v>360.33020382382563</v>
-      </c>
-    </row>
-    <row r="37" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W37">
-        <f>W36+1</f>
-        <v>33</v>
-      </c>
-      <c r="X37">
+        <v>46</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="6"/>
+        <v>-5.4216161165728423</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="2"/>
+        <v>53.5</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="7"/>
+        <v>319.73874767629565</v>
+      </c>
+    </row>
+    <row r="52" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W52">
         <f t="shared" si="0"/>
-        <v>0.35246226234329114</v>
-      </c>
-      <c r="Z37">
+        <v>54.5</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="6"/>
+        <v>-5.6696295132253338</v>
+      </c>
+      <c r="AA52">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="AA37">
+        <v>54.5</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="7"/>
+        <v>314.1931248613966</v>
+      </c>
+    </row>
+    <row r="53" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="X53">
         <f t="shared" si="3"/>
-        <v>361.00348539814394</v>
-      </c>
-    </row>
-    <row r="38" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W38">
-        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="6"/>
+        <v>-5.9176429098778254</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="7"/>
+        <v>308.39948864984507</v>
+      </c>
+    </row>
+    <row r="54" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="6"/>
+        <v>-6.1656563065303169</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="7"/>
+        <v>302.35783904164094</v>
+      </c>
+    </row>
+    <row r="55" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="6"/>
+        <v>-6.4136697031828085</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="7"/>
+        <v>296.06817603678445</v>
+      </c>
+    </row>
+    <row r="56" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="6"/>
+        <v>-6.6616830998353</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="7"/>
+        <v>289.53049963527536</v>
+      </c>
+    </row>
+    <row r="57" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="6"/>
+        <v>-6.9096964964877916</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="7"/>
+        <v>282.74480983711391</v>
+      </c>
+    </row>
+    <row r="58" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="6"/>
+        <v>-7.1577098931402832</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="7"/>
+        <v>275.71110664229985</v>
+      </c>
+    </row>
+    <row r="59" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="6"/>
+        <v>-7.4057232897927747</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="7"/>
+        <v>268.42939005083298</v>
+      </c>
+    </row>
+    <row r="60" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="6"/>
+        <v>-7.6537366864452663</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="7"/>
+        <v>260.89966006271442</v>
+      </c>
+    </row>
+    <row r="61" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="X61">
+        <v>56</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="6"/>
+        <v>-7.9017500830977578</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="AB61">
+        <v>56</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="7"/>
+        <v>253.12191667794258</v>
+      </c>
+    </row>
+    <row r="62" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+      <c r="X62">
+        <v>57</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="6"/>
+        <v>-8.1497634797502485</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="AB62">
+        <v>57</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="7"/>
+        <v>245.09615989651883</v>
+      </c>
+      <c r="AD62" s="3"/>
+      <c r="AF62" t="s">
         <v>34</v>
       </c>
-      <c r="X38">
+    </row>
+    <row r="63" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W63">
         <f t="shared" si="0"/>
-        <v>-0.28917636160678484</v>
-      </c>
-      <c r="Z38">
+        <v>65.5</v>
+      </c>
+      <c r="X63">
+        <f>X62+1</f>
+        <v>58</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="6"/>
+        <v>-8.397776876402741</v>
+      </c>
+      <c r="AA63">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="3"/>
-        <v>361.03512834851222</v>
-      </c>
-    </row>
-    <row r="39" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W39">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="X39">
+        <v>65.5</v>
+      </c>
+      <c r="AB63">
+        <f>AB62+1</f>
+        <v>58</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="7"/>
+        <v>236.82238971844214</v>
+      </c>
+    </row>
+    <row r="64" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="W64">
         <f t="shared" si="0"/>
-        <v>-0.93081498555686082</v>
-      </c>
-      <c r="Z39">
+        <v>66.5</v>
+      </c>
+      <c r="X64">
+        <f t="shared" ref="X64:X84" si="8">X63+1</f>
+        <v>59</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="6"/>
+        <v>-8.6457902730552334</v>
+      </c>
+      <c r="AA64">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="3"/>
-        <v>360.42513267493035</v>
-      </c>
-    </row>
-    <row r="40" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W40">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="X40">
+        <v>66.5</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" ref="AB64:AB84" si="9">AB63+1</f>
+        <v>59</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="7"/>
+        <v>228.30060614371342</v>
+      </c>
+    </row>
+    <row r="65" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W65">
         <f t="shared" si="0"/>
-        <v>-1.5724536095069332</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" si="3"/>
-        <v>359.17349837739846</v>
-      </c>
-    </row>
-    <row r="41" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W41">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="0"/>
-        <v>-2.2140922334570057</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="3"/>
-        <v>357.28022545591654</v>
-      </c>
-    </row>
-    <row r="42" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W42">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="0"/>
-        <v>-2.8557308574070817</v>
-      </c>
-      <c r="Z42">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="AA42">
-        <f t="shared" si="3"/>
-        <v>354.74531391048447</v>
-      </c>
-    </row>
-    <row r="43" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W43">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="0"/>
-        <v>-3.4973694813571576</v>
-      </c>
-      <c r="Z43">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="AA43">
-        <f t="shared" si="3"/>
-        <v>351.56876374110232</v>
-      </c>
-    </row>
-    <row r="44" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W44">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="0"/>
-        <v>-4.1390081053072301</v>
-      </c>
-      <c r="Z44">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AA44">
-        <f t="shared" si="3"/>
-        <v>347.75057494777025</v>
-      </c>
-    </row>
-    <row r="45" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W45">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="X45">
-        <f t="shared" si="0"/>
-        <v>-4.7806467292573025</v>
-      </c>
-      <c r="Z45">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="AA45">
-        <f t="shared" si="3"/>
-        <v>343.29074753048792</v>
-      </c>
-    </row>
-    <row r="46" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W46">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="0"/>
-        <v>-5.4222853532073785</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="3"/>
-        <v>338.18928148925545</v>
-      </c>
-    </row>
-    <row r="47" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W47">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="X47">
-        <f t="shared" si="0"/>
-        <v>-6.0639239771574545</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" si="3"/>
-        <v>332.44617682407318</v>
-      </c>
-    </row>
-    <row r="48" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W48">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="0"/>
-        <v>-6.7055626011075269</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="AA48">
-        <f t="shared" si="3"/>
-        <v>326.06143353494065</v>
-      </c>
-    </row>
-    <row r="49" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W49">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="0"/>
-        <v>-7.3472012250575993</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="3"/>
-        <v>319.03505162185797</v>
-      </c>
-    </row>
-    <row r="50" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W50">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="0"/>
-        <v>-7.9888398490076753</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="3"/>
-        <v>311.3670310848255</v>
-      </c>
-    </row>
-    <row r="51" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W51">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="0"/>
-        <v>-8.6304784729577513</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" si="3"/>
-        <v>303.05737192384277</v>
-      </c>
-    </row>
-    <row r="52" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W52">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="0"/>
-        <v>-9.2721170969078237</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="AA52">
-        <f t="shared" si="3"/>
-        <v>294.10607413890989</v>
-      </c>
-    </row>
-    <row r="53" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W53">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="X53">
-        <f t="shared" si="0"/>
-        <v>-9.9137557208578961</v>
-      </c>
-      <c r="Z53">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="AA53">
-        <f t="shared" si="3"/>
-        <v>284.51313773002698</v>
-      </c>
-    </row>
-    <row r="54" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W54">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="X54">
-        <f t="shared" si="0"/>
-        <v>-10.555394344807969</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="AA54">
-        <f t="shared" si="3"/>
-        <v>274.27856269719427</v>
-      </c>
-    </row>
-    <row r="55" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W55">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="X55">
-        <f t="shared" si="0"/>
-        <v>-11.197032968758048</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="AA55">
-        <f t="shared" si="3"/>
-        <v>263.4023490404112</v>
-      </c>
-    </row>
-    <row r="56" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W56">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="X56">
-        <f t="shared" si="0"/>
-        <v>-11.838671592708121</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" si="3"/>
-        <v>251.88449675967809</v>
-      </c>
-    </row>
-    <row r="57" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W57">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="X57">
-        <f t="shared" si="0"/>
-        <v>-12.480310216658193</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="AA57">
-        <f>$H$25*Z57-(0.5*$T$9*(Z57*Z57))</f>
-        <v>239.72500585499483</v>
-      </c>
-    </row>
-    <row r="58" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W58">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="X58">
-        <f t="shared" si="0"/>
-        <v>-13.121948840608272</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="AA58">
-        <f>$H$25*Z58-(0.5*$T$9*(Z58*Z58))</f>
-        <v>226.92387632636155</v>
-      </c>
-    </row>
-    <row r="59" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W59">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="X59">
-        <f t="shared" si="0"/>
-        <v>-13.763587464558345</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" ref="AA59:AA61" si="4">$H$25*Z59-(0.5*$T$9*(Z59*Z59))</f>
-        <v>213.48110817377824</v>
-      </c>
-    </row>
-    <row r="60" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W60">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="0"/>
-        <v>-14.405226088508417</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="4"/>
-        <v>199.39670139724512</v>
-      </c>
-    </row>
-    <row r="61" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W61" s="5">
-        <v>56.37</v>
-      </c>
-      <c r="X61" s="5">
-        <f t="shared" si="0"/>
-        <v>-14.642632379369946</v>
-      </c>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5">
-        <v>56.37</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="4"/>
-        <v>194.02284758068754</v>
-      </c>
-      <c r="AB61" s="5"/>
-    </row>
-    <row r="62" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W62">
-        <v>57</v>
-      </c>
-      <c r="X62">
-        <f>$X$61-$T$8*(W62-$W$61)</f>
-        <v>-14.798880819261017</v>
-      </c>
-      <c r="Z62">
-        <v>57</v>
-      </c>
-      <c r="AA62">
-        <f>($X$61*Z62)+($T$8*($T$4*Z62+0.5*78^2-0.5*Z62^2))-78.95*($X$61+$T$8*$T$4)</f>
-        <v>458.05072091869403</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W63">
-        <f>W62+1</f>
-        <v>58</v>
-      </c>
-      <c r="X63">
-        <f t="shared" ref="X63:X79" si="5">$X$61-$T$8*(W63-$W$61)</f>
-        <v>-15.046894215913508</v>
-      </c>
-      <c r="Z63">
-        <f>Z62+1</f>
-        <v>58</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" ref="AA63:AA79" si="6">($X$61*Z63)+($T$8*($T$4*Z63+0.5*78^2-0.5*Z63^2))-78.95*($X$61+$T$8*$T$4)</f>
-        <v>438.93839110485288</v>
-      </c>
-    </row>
-    <row r="64" spans="23:30" x14ac:dyDescent="0.3">
-      <c r="W64">
-        <f t="shared" ref="W64:W79" si="7">W63+1</f>
-        <v>59</v>
-      </c>
-      <c r="X64">
-        <f t="shared" si="5"/>
-        <v>-15.294907612566</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" ref="Z64:Z79" si="8">Z63+1</f>
-        <v>59</v>
-      </c>
-      <c r="AA64">
-        <f t="shared" si="6"/>
-        <v>419.57804789435937</v>
-      </c>
-    </row>
-    <row r="65" spans="23:27" x14ac:dyDescent="0.3">
-      <c r="W65">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="X65">
-        <f t="shared" si="5"/>
-        <v>-15.542921009218491</v>
-      </c>
-      <c r="Z65">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
+      <c r="Y65">
+        <f t="shared" si="6"/>
+        <v>-8.8938036697077241</v>
+      </c>
       <c r="AA65">
-        <f t="shared" si="6"/>
-        <v>399.96969128721327</v>
-      </c>
-    </row>
-    <row r="66" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>67.5</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="7"/>
+        <v>219.53080917233177</v>
+      </c>
+    </row>
+    <row r="66" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W66">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>68.5</v>
       </c>
       <c r="X66">
-        <f t="shared" si="5"/>
-        <v>-15.790934405870983</v>
-      </c>
-      <c r="Z66">
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
+      <c r="Y66">
+        <f t="shared" si="6"/>
+        <v>-9.1418170663602147</v>
+      </c>
       <c r="AA66">
-        <f t="shared" si="6"/>
-        <v>380.11332128341445</v>
-      </c>
-    </row>
-    <row r="67" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="7"/>
+        <v>210.51299880429764</v>
+      </c>
+    </row>
+    <row r="67" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W67">
-        <f t="shared" si="7"/>
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>69.5</v>
       </c>
       <c r="X67">
-        <f t="shared" si="5"/>
-        <v>-16.038947802523474</v>
-      </c>
-      <c r="Z67">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
+      <c r="Y67">
+        <f t="shared" si="6"/>
+        <v>-9.3898304630127072</v>
+      </c>
       <c r="AA67">
-        <f t="shared" si="6"/>
-        <v>360.00893788296349</v>
-      </c>
-    </row>
-    <row r="68" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="7"/>
+        <v>201.24717503961125</v>
+      </c>
+    </row>
+    <row r="68" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W68">
-        <f t="shared" si="7"/>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>70.5</v>
       </c>
       <c r="X68">
-        <f t="shared" si="5"/>
-        <v>-16.286961199175966</v>
-      </c>
-      <c r="Z68">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
+      <c r="Y68">
+        <f t="shared" si="6"/>
+        <v>-9.6378438596651996</v>
+      </c>
       <c r="AA68">
-        <f t="shared" si="6"/>
-        <v>339.65654108585971</v>
-      </c>
-    </row>
-    <row r="69" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="7"/>
+        <v>191.73333787827238</v>
+      </c>
+    </row>
+    <row r="69" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W69">
-        <f t="shared" si="7"/>
-        <v>64</v>
+        <f t="shared" ref="W69:W85" si="10">$P$9+X69</f>
+        <v>71.5</v>
       </c>
       <c r="X69">
-        <f t="shared" si="5"/>
-        <v>-16.534974595828459</v>
-      </c>
-      <c r="Z69">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
+      <c r="Y69">
+        <f t="shared" si="6"/>
+        <v>-9.8858572563176903</v>
+      </c>
       <c r="AA69">
-        <f t="shared" si="6"/>
-        <v>319.05613089210379</v>
-      </c>
-    </row>
-    <row r="70" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AA69:AA85" si="11">$P$9+AB69</f>
+        <v>71.5</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="7"/>
+        <v>181.97148732028091</v>
+      </c>
+    </row>
+    <row r="70" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W70">
-        <f t="shared" si="7"/>
-        <v>65</v>
+        <f t="shared" si="10"/>
+        <v>72.5</v>
       </c>
       <c r="X70">
-        <f t="shared" si="5"/>
-        <v>-16.782987992480948</v>
-      </c>
-      <c r="Z70">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
+      <c r="Y70">
+        <f t="shared" si="6"/>
+        <v>-10.133870652970181</v>
+      </c>
       <c r="AA70">
-        <f t="shared" si="6"/>
-        <v>298.20770730169505</v>
-      </c>
-    </row>
-    <row r="71" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>72.5</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="7"/>
+        <v>171.96162336563697</v>
+      </c>
+    </row>
+    <row r="71" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W71">
-        <f t="shared" si="7"/>
-        <v>66</v>
+        <f t="shared" si="10"/>
+        <v>73.5</v>
       </c>
       <c r="X71">
-        <f t="shared" si="5"/>
-        <v>-17.03100138913344</v>
-      </c>
-      <c r="Z71">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
+      <c r="Y71">
+        <f t="shared" si="6"/>
+        <v>-10.381884049622673</v>
+      </c>
       <c r="AA71">
-        <f t="shared" si="6"/>
-        <v>277.11127031463417</v>
-      </c>
-    </row>
-    <row r="72" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>73.5</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="7"/>
+        <v>161.70374601434065</v>
+      </c>
+    </row>
+    <row r="72" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W72">
-        <f t="shared" si="7"/>
-        <v>67</v>
+        <f t="shared" si="10"/>
+        <v>74.5</v>
       </c>
       <c r="X72">
-        <f t="shared" si="5"/>
-        <v>-17.279014785785932</v>
-      </c>
-      <c r="Z72">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
+      <c r="Y72">
+        <f t="shared" si="6"/>
+        <v>-10.629897446275166</v>
+      </c>
       <c r="AA72">
-        <f t="shared" si="6"/>
-        <v>255.76681993092035</v>
-      </c>
-    </row>
-    <row r="73" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>74.5</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="7"/>
+        <v>151.19785526639174</v>
+      </c>
+    </row>
+    <row r="73" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W73">
-        <f t="shared" si="7"/>
-        <v>68</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="X73">
-        <f t="shared" si="5"/>
-        <v>-17.527028182438425</v>
-      </c>
-      <c r="Z73">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
+      <c r="Y73">
+        <f t="shared" si="6"/>
+        <v>-10.877910842927657</v>
+      </c>
       <c r="AA73">
-        <f t="shared" si="6"/>
-        <v>234.17435615055439</v>
-      </c>
-    </row>
-    <row r="74" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>75.5</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="7"/>
+        <v>140.44395112179035</v>
+      </c>
+    </row>
+    <row r="74" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W74">
-        <f t="shared" si="7"/>
-        <v>69</v>
+        <f t="shared" si="10"/>
+        <v>76.5</v>
       </c>
       <c r="X74">
-        <f t="shared" si="5"/>
-        <v>-17.775041579090914</v>
-      </c>
-      <c r="Z74">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
+      <c r="Y74">
+        <f t="shared" si="6"/>
+        <v>-11.125924239580147</v>
+      </c>
       <c r="AA74">
-        <f t="shared" si="6"/>
-        <v>212.33387897353583</v>
-      </c>
-    </row>
-    <row r="75" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>76.5</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="7"/>
+        <v>129.44203358053613</v>
+      </c>
+    </row>
+    <row r="75" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W75">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <f t="shared" si="10"/>
+        <v>77.5</v>
       </c>
       <c r="X75">
-        <f t="shared" si="5"/>
-        <v>-18.023054975743406</v>
-      </c>
-      <c r="Z75">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
+      <c r="Y75">
+        <f t="shared" si="6"/>
+        <v>-11.37393763623264</v>
+      </c>
       <c r="AA75">
-        <f t="shared" si="6"/>
-        <v>190.24538839986479</v>
-      </c>
-    </row>
-    <row r="76" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>77.5</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="7"/>
+        <v>118.19210264263</v>
+      </c>
+    </row>
+    <row r="76" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W76">
-        <f t="shared" si="7"/>
-        <v>71</v>
+        <f t="shared" si="10"/>
+        <v>78.5</v>
       </c>
       <c r="X76">
-        <f t="shared" si="5"/>
-        <v>-18.271068372395899</v>
-      </c>
-      <c r="Z76">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
+      <c r="Y76">
+        <f t="shared" si="6"/>
+        <v>-11.621951032885132</v>
+      </c>
       <c r="AA76">
-        <f t="shared" si="6"/>
-        <v>167.90888442954127</v>
-      </c>
-    </row>
-    <row r="77" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>78.5</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="7"/>
+        <v>106.69415830807094</v>
+      </c>
+    </row>
+    <row r="77" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W77">
-        <f t="shared" si="7"/>
-        <v>72</v>
+        <f t="shared" si="10"/>
+        <v>79.5</v>
       </c>
       <c r="X77">
-        <f t="shared" si="5"/>
-        <v>-18.519081769048391</v>
-      </c>
-      <c r="Z77">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
+      <c r="Y77">
+        <f t="shared" si="6"/>
+        <v>-11.869964429537623</v>
+      </c>
       <c r="AA77">
-        <f t="shared" si="6"/>
-        <v>145.32436706256516</v>
-      </c>
-    </row>
-    <row r="78" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>79.5</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="7"/>
+        <v>94.948200576859847</v>
+      </c>
+    </row>
+    <row r="78" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W78">
-        <f t="shared" si="7"/>
-        <v>73</v>
+        <f t="shared" si="10"/>
+        <v>80.5</v>
       </c>
       <c r="X78">
-        <f t="shared" si="5"/>
-        <v>-18.76709516570088</v>
-      </c>
-      <c r="Z78">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
+      <c r="Y78">
+        <f t="shared" si="6"/>
+        <v>-12.117977826190113</v>
+      </c>
       <c r="AA78">
-        <f t="shared" si="6"/>
-        <v>122.49183629893679</v>
-      </c>
-    </row>
-    <row r="79" spans="23:27" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>80.5</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="7"/>
+        <v>82.954229448995818</v>
+      </c>
+    </row>
+    <row r="79" spans="23:29" x14ac:dyDescent="0.25">
       <c r="W79">
-        <f t="shared" si="7"/>
-        <v>74</v>
+        <f t="shared" si="10"/>
+        <v>81.5</v>
       </c>
       <c r="X79">
-        <f t="shared" si="5"/>
-        <v>-19.015108562353372</v>
-      </c>
-      <c r="Z79">
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
+      <c r="Y79">
+        <f t="shared" si="6"/>
+        <v>-12.365991222842606</v>
+      </c>
       <c r="AA79">
+        <f t="shared" si="11"/>
+        <v>81.5</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="7"/>
+        <v>70.712244924479535</v>
+      </c>
+    </row>
+    <row r="80" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <f t="shared" si="10"/>
+        <v>82.5</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="Y80">
         <f t="shared" si="6"/>
-        <v>99.41129213865571</v>
+        <v>-12.614004619495097</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="11"/>
+        <v>82.5</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="7"/>
+        <v>58.222247003310656</v>
+      </c>
+    </row>
+    <row r="81" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <f t="shared" si="10"/>
+        <v>83.5</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="6"/>
+        <v>-12.862018016147589</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="11"/>
+        <v>83.5</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="AC81">
+        <f t="shared" si="7"/>
+        <v>45.484235685489182</v>
+      </c>
+    </row>
+    <row r="82" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <f t="shared" si="10"/>
+        <v>84.5</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="6"/>
+        <v>-13.11003141280008</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="11"/>
+        <v>84.5</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="7"/>
+        <v>32.498210971015453</v>
+      </c>
+    </row>
+    <row r="83" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <f t="shared" si="10"/>
+        <v>85.5</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="6"/>
+        <v>-13.358044809452572</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="11"/>
+        <v>85.5</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="AC83">
+        <f t="shared" si="7"/>
+        <v>19.264172859889129</v>
+      </c>
+    </row>
+    <row r="84" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <f t="shared" si="10"/>
+        <v>86.5</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="6"/>
+        <v>-13.606058206105063</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="11"/>
+        <v>86.5</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="7"/>
+        <v>5.7821213521102663</v>
+      </c>
+    </row>
+    <row r="85" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <f t="shared" si="10"/>
+        <v>86.923299999999998</v>
+      </c>
+      <c r="X85">
+        <v>79.423299999999998</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="6"/>
+        <v>-13.711042276908062</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="11"/>
+        <v>86.923299999999998</v>
+      </c>
+      <c r="AB85">
+        <v>79.423299999999998</v>
+      </c>
+      <c r="AC85">
+        <f t="shared" si="7"/>
+        <v>4.5703488069648301E-4</v>
+      </c>
+      <c r="AD85" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350CEAA-0F5B-46A9-B30E-EC43F6781891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41B536-C923-476D-91E9-FDA8DE59B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
@@ -322,10 +322,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4041,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
   <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC46" sqref="AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,34 +4062,34 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="S1" s="6" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="X1" s="7" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="X1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="AB1" s="7" t="s">
+      <c r="Y1" s="6"/>
+      <c r="AB1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="7"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41B536-C923-476D-91E9-FDA8DE59B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51469378-A307-4E5C-B477-2D7FCEC71B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
@@ -4041,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
   <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC46" sqref="AC46"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51469378-A307-4E5C-B477-2D7FCEC71B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D960E851-CEF7-4E62-A5AF-9E842C5862DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>Calculation of Max Drag</t>
   </si>
@@ -231,13 +231,91 @@
   </si>
   <si>
     <t>You will also need to change the parts of the formula below the green cells that reference green cell values.</t>
+  </si>
+  <si>
+    <t>Compressive Stress Due to Drag (F_ca)</t>
+  </si>
+  <si>
+    <t>Outer Diameter</t>
+  </si>
+  <si>
+    <t>Inner Diameter</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>in^2</t>
+  </si>
+  <si>
+    <t>Section Modulus</t>
+  </si>
+  <si>
+    <t>Maximum Bending Stress</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>D/t ratio</t>
+  </si>
+  <si>
+    <t>If D/t &gt; 70, use the graph below</t>
+  </si>
+  <si>
+    <t>L is the unsupported length of tube</t>
+  </si>
+  <si>
+    <t>Couplers can act as supports</t>
+  </si>
+  <si>
+    <t>For ultra-conservative, use entire length (not realistic)</t>
+  </si>
+  <si>
+    <t>Determining If Will Fail By Buckling</t>
+  </si>
+  <si>
+    <t>If below line, won't buckle</t>
+  </si>
+  <si>
+    <t>Max Combined Compressive Stress</t>
+  </si>
+  <si>
+    <t>Maximum Compressive Force</t>
+  </si>
+  <si>
+    <t>Figure from Richard Nakka Rocket Body Considerations</t>
+  </si>
+  <si>
+    <t>ONLY FOR ALUMINUM TUBES</t>
+  </si>
+  <si>
+    <t>Rocket Wet Mass (m)</t>
+  </si>
+  <si>
+    <t>Max Acceleration (a_max)</t>
+  </si>
+  <si>
+    <t>ft/s^2</t>
+  </si>
+  <si>
+    <t>Compressive  Stress Due to Mass Inertia</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>Safety Factor</t>
+  </si>
+  <si>
+    <t>Yield Stress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +366,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,11 +402,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,8 +418,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3317,13 +3411,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>21175</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>20106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>105833</xdr:rowOff>
@@ -3353,13 +3447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>21167</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>22227</xdr:rowOff>
@@ -3391,13 +3485,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>529168</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>63511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38129</xdr:rowOff>
@@ -3425,6 +3519,50 @@
         <a:xfrm>
           <a:off x="26670001" y="4254511"/>
           <a:ext cx="7524749" cy="546118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>414002</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1785E8-A7E7-9984-C2A0-3E799019A46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38611968" y="1428750"/>
+          <a:ext cx="7105315" cy="4973076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4039,10 +4177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
-  <dimension ref="A1:AG85"/>
+  <dimension ref="A1:BE85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AZ19" sqref="AZ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4056,9 +4194,10 @@
     <col min="24" max="24" width="14.28515625" customWidth="1"/>
     <col min="27" max="27" width="12.42578125" customWidth="1"/>
     <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="52" max="52" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4090,8 +4229,14 @@
         <v>54</v>
       </c>
       <c r="AC1" s="6"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -4121,8 +4266,24 @@
       </c>
       <c r="X2" s="4"/>
       <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA2">
+        <v>3.12</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2">
+        <f>BA2/((BA2-BA3)/2)</f>
+        <v>51.999999999999957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -4175,8 +4336,20 @@
       <c r="AC3" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -4234,8 +4407,22 @@
         <f>$H$25*AB4-(0.5*$T$9*(AB4*AB4))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA4">
+        <f>(PI()/4)*(BA2^2-BA3^2)</f>
+        <v>0.57679641119908664</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE4" s="3"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4298,8 +4485,22 @@
         <f>$H$25*AB5-(0.5*$T$9*(AB5*AB5))</f>
         <v>21.205717540720702</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA5">
+        <f>D7/BA4</f>
+        <v>27.129574267700015</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE5" s="3"/>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4338,8 +4539,12 @@
         <f t="shared" ref="AC6:AC44" si="5">$H$25*AB6-(0.5*$T$9*(AB6*AB6))</f>
         <v>41.769796457491324</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="BD6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE6" s="3"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
@@ -4389,8 +4594,19 @@
         <f t="shared" si="5"/>
         <v>61.692236750311878</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7">
+        <f>(PI()/(32*BA2)*(BA2^4-BA3^4))</f>
+        <v>0.43293007555962221</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE7" s="3"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
@@ -4440,8 +4656,18 @@
         <f t="shared" si="5"/>
         <v>80.973038419182359</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA8">
+        <f>MAX(AC4:AC85)/BA7</f>
+        <v>833.9340432327881</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4496,7 +4722,7 @@
         <v>99.612201464102768</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4530,8 +4756,17 @@
         <f t="shared" si="5"/>
         <v>117.60972588507309</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10">
+        <v>601</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
@@ -4575,8 +4810,17 @@
         <f t="shared" si="5"/>
         <v>134.96561168209337</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11">
+        <v>18.1875</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4610,8 +4854,18 @@
         <f t="shared" si="5"/>
         <v>151.67985885516353</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA12">
+        <f>(BA11*32.2*(1+(BA10/32/2))/BA4)</f>
+        <v>10549.891660711388</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
@@ -4646,7 +4900,7 @@
         <v>167.75246740428364</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
@@ -4680,8 +4934,18 @@
         <f t="shared" si="5"/>
         <v>183.18343732945368</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA14" s="8">
+        <f>BA5+BA8+BA12</f>
+        <v>11410.955278211875</v>
+      </c>
+      <c r="BB14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
@@ -4717,7 +4981,7 @@
         <v>197.97276863067361</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4752,8 +5016,17 @@
         <f t="shared" si="5"/>
         <v>212.12046130794351</v>
       </c>
-    </row>
-    <row r="17" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA16">
+        <v>35000</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="7:53" x14ac:dyDescent="0.25">
       <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
@@ -4788,8 +5061,15 @@
         <f t="shared" si="5"/>
         <v>225.62651536126333</v>
       </c>
-    </row>
-    <row r="18" spans="7:29" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA17" s="8">
+        <f>BA16/BA14</f>
+        <v>3.0672278653855689</v>
+      </c>
+    </row>
+    <row r="18" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W18">
         <f t="shared" si="0"/>
         <v>21.5</v>
@@ -4815,7 +5095,7 @@
         <v>238.49093079063309</v>
       </c>
     </row>
-    <row r="19" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:53" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
@@ -4851,7 +5131,7 @@
         <v>250.7137075960527</v>
       </c>
     </row>
-    <row r="20" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W20">
         <f t="shared" si="0"/>
         <v>23.5</v>
@@ -4877,7 +5157,7 @@
         <v>262.29484577752231</v>
       </c>
     </row>
-    <row r="21" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W21">
         <f t="shared" si="0"/>
         <v>24.5</v>
@@ -4903,7 +5183,7 @@
         <v>273.23434533504184</v>
       </c>
     </row>
-    <row r="22" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:53" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>26</v>
       </c>
@@ -4932,7 +5212,7 @@
         <v>283.53220626861128</v>
       </c>
     </row>
-    <row r="23" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:53" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>43</v>
       </c>
@@ -4964,7 +5244,7 @@
         <v>293.18842857823063</v>
       </c>
     </row>
-    <row r="24" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:53" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4999,7 +5279,7 @@
         <v>302.20301226389995</v>
       </c>
     </row>
-    <row r="25" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:53" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
         <v>44</v>
       </c>
@@ -5035,7 +5315,7 @@
         <v>310.57595732561913</v>
       </c>
     </row>
-    <row r="26" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W26">
         <f t="shared" si="0"/>
         <v>29.5</v>
@@ -5061,7 +5341,7 @@
         <v>318.30726376338828</v>
       </c>
     </row>
-    <row r="27" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W27">
         <f t="shared" si="0"/>
         <v>30.5</v>
@@ -5087,7 +5367,7 @@
         <v>325.3969315772074</v>
       </c>
     </row>
-    <row r="28" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W28">
         <f t="shared" si="0"/>
         <v>31.5</v>
@@ -5113,7 +5393,7 @@
         <v>331.84496076707632</v>
       </c>
     </row>
-    <row r="29" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W29">
         <f t="shared" si="0"/>
         <v>32.5</v>
@@ -5139,7 +5419,7 @@
         <v>337.65135133299532</v>
       </c>
     </row>
-    <row r="30" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W30">
         <f t="shared" si="0"/>
         <v>33.5</v>
@@ -5165,7 +5445,7 @@
         <v>342.81610327496412</v>
       </c>
     </row>
-    <row r="31" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W31">
         <f t="shared" si="0"/>
         <v>34.5</v>
@@ -5191,7 +5471,7 @@
         <v>347.33921659298284</v>
       </c>
     </row>
-    <row r="32" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:53" x14ac:dyDescent="0.25">
       <c r="W32">
         <f t="shared" si="0"/>
         <v>35.5</v>
@@ -5217,7 +5497,7 @@
         <v>351.22069128705164</v>
       </c>
     </row>
-    <row r="33" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W33">
         <f t="shared" si="0"/>
         <v>36.5</v>
@@ -5243,7 +5523,7 @@
         <v>354.46052735717018</v>
       </c>
     </row>
-    <row r="34" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W34">
         <f t="shared" si="0"/>
         <v>37.5</v>
@@ -5269,7 +5549,7 @@
         <v>357.05872480333869</v>
       </c>
     </row>
-    <row r="35" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W35">
         <f t="shared" si="0"/>
         <v>38.5</v>
@@ -5294,8 +5574,11 @@
         <f t="shared" si="5"/>
         <v>359.01528362555729</v>
       </c>
-    </row>
-    <row r="36" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="BD35" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W36">
         <f t="shared" si="0"/>
         <v>39.5</v>
@@ -5320,8 +5603,11 @@
         <f t="shared" si="5"/>
         <v>360.33020382382563</v>
       </c>
-    </row>
-    <row r="37" spans="23:33" x14ac:dyDescent="0.25">
+      <c r="BD36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W37">
         <f t="shared" si="0"/>
         <v>40.5</v>
@@ -5347,7 +5633,7 @@
         <v>361.00348539814394</v>
       </c>
     </row>
-    <row r="38" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W38">
         <f t="shared" si="0"/>
         <v>41.5</v>
@@ -5373,7 +5659,7 @@
         <v>361.03512834851222</v>
       </c>
     </row>
-    <row r="39" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W39">
         <f t="shared" si="0"/>
         <v>42.5</v>
@@ -5399,7 +5685,7 @@
         <v>360.42513267493035</v>
       </c>
     </row>
-    <row r="40" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W40">
         <f t="shared" si="0"/>
         <v>43.5</v>
@@ -5425,7 +5711,7 @@
         <v>359.17349837739846</v>
       </c>
     </row>
-    <row r="41" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W41">
         <f t="shared" si="0"/>
         <v>44.5</v>
@@ -5451,7 +5737,7 @@
         <v>357.28022545591654</v>
       </c>
     </row>
-    <row r="42" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W42">
         <f t="shared" si="0"/>
         <v>45.5</v>
@@ -5477,7 +5763,7 @@
         <v>354.74531391048447</v>
       </c>
     </row>
-    <row r="43" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W43">
         <f t="shared" si="0"/>
         <v>46.5</v>
@@ -5503,7 +5789,7 @@
         <v>351.56876374110232</v>
       </c>
     </row>
-    <row r="44" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W44">
         <f t="shared" si="0"/>
         <v>46.978000000000002</v>
@@ -5534,7 +5820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W45">
         <f t="shared" si="0"/>
         <v>47.5</v>
@@ -5566,7 +5852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W46">
         <f t="shared" si="0"/>
         <v>48.5</v>
@@ -5592,7 +5878,7 @@
         <v>343.74666080100354</v>
       </c>
     </row>
-    <row r="47" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W47">
         <f t="shared" si="0"/>
         <v>49.5</v>
@@ -5618,7 +5904,7 @@
         <v>339.44110496936736</v>
       </c>
     </row>
-    <row r="48" spans="23:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="23:56" x14ac:dyDescent="0.25">
       <c r="W48">
         <f t="shared" si="0"/>
         <v>50.5</v>

--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D960E851-CEF7-4E62-A5AF-9E842C5862DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED847705-2018-41B0-B8EE-AEC0B5D79A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
@@ -4179,7 +4179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
   <dimension ref="A1:BE85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AZ19" sqref="AZ19"/>
     </sheetView>
   </sheetViews>

--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED847705-2018-41B0-B8EE-AEC0B5D79A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5256C4D-19C1-4C57-80E6-95E7B84B0277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,10 +415,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -4179,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A825FAF-4742-4B1C-8FEE-CCCA86FED367}">
   <dimension ref="A1:BE85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ19" sqref="AZ19"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BA22" sqref="BA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4201,26 +4201,26 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="S1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
       <c r="X1" s="6" t="s">
         <v>53</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="5"/>
+        <f>$H$25*AB9-(0.5*$T$9*(AB9*AB9))</f>
         <v>99.612201464102768</v>
       </c>
     </row>
@@ -4858,8 +4858,8 @@
         <v>87</v>
       </c>
       <c r="BA12">
-        <f>(BA11*32.2*(1+(BA10/32/2))/BA4)</f>
-        <v>10549.891660711388</v>
+        <f>(BA11*32.2*(1+(BA10/32.2)))/BA4</f>
+        <v>19966.013616587905</v>
       </c>
       <c r="BB12" t="s">
         <v>72</v>
@@ -4934,14 +4934,14 @@
         <f t="shared" si="5"/>
         <v>183.18343732945368</v>
       </c>
-      <c r="AZ14" s="8" t="s">
+      <c r="AZ14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BA14" s="8">
+      <c r="BA14" s="7">
         <f>BA5+BA8+BA12</f>
-        <v>11410.955278211875</v>
-      </c>
-      <c r="BB14" s="8" t="s">
+        <v>20827.077234088392</v>
+      </c>
+      <c r="BB14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
         <f t="shared" si="5"/>
         <v>225.62651536126333</v>
       </c>
-      <c r="AZ17" s="8" t="s">
+      <c r="AZ17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="BA17" s="8">
+      <c r="BA17" s="7">
         <f>BA16/BA14</f>
-        <v>3.0672278653855689</v>
+        <v>1.6805046433838684</v>
       </c>
     </row>
     <row r="18" spans="7:53" x14ac:dyDescent="0.25">

--- a/Subscale - Bending and Barrowman Calcs.xlsx
+++ b/Subscale - Bending and Barrowman Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchee\OneDrive\Documents\Clubs and Fun\APRL Github\Vehicle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5256C4D-19C1-4C57-80E6-95E7B84B0277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB499E20-486C-497F-8F65-118AC924F5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89B1A080-25E0-4FFB-AE02-629D748CE398}"/>
   </bookViews>
